--- a/benchmarks/cnfvehicle/cnf-info-ver3.xlsx
+++ b/benchmarks/cnfvehicle/cnf-info-ver3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apfel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biggl\amoeba_revised_rules\benchmarks\cnfvehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C14C55A-C565-4F0B-979F-7982A6FC0414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C82B8-0506-4BA2-8F30-09EA71F1A531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="0" windowWidth="16548" windowHeight="6096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Node</t>
     <phoneticPr fontId="1"/>
@@ -57,35 +57,56 @@
   <si>
     <t>Min</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Variable</t>
+  </si>
+  <si>
+    <t># Clause</t>
+  </si>
+  <si>
+    <t>New generated:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,13 +123,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,15 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +468,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -453,8 +483,17 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>6</v>
       </c>
@@ -464,10 +503,10 @@
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>486</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>503</v>
       </c>
       <c r="G2">
@@ -479,8 +518,14 @@
       <c r="I2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K2" s="2">
+        <v>1235</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>6</v>
       </c>
@@ -490,10 +535,10 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>648</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>617</v>
       </c>
       <c r="G3">
@@ -505,8 +550,14 @@
       <c r="I3">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K3" s="2">
+        <v>1664</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>6</v>
       </c>
@@ -516,10 +567,10 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>636</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1541</v>
       </c>
       <c r="G4">
@@ -531,8 +582,14 @@
       <c r="I4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K4" s="2">
+        <v>1652</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>6</v>
       </c>
@@ -542,14 +599,26 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>756</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1936</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K5" s="2">
+        <v>2303</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>8</v>
       </c>
@@ -559,10 +628,10 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>705</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2088</v>
       </c>
       <c r="G7">
@@ -574,8 +643,14 @@
       <c r="I7">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K7" s="2">
+        <v>3373</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>8</v>
       </c>
@@ -585,10 +660,10 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1092</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5660</v>
       </c>
       <c r="G8">
@@ -600,8 +675,14 @@
       <c r="I8">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K8" s="2">
+        <v>5437</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -611,10 +692,10 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1248</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>5847</v>
       </c>
       <c r="G9">
@@ -626,8 +707,14 @@
       <c r="I9">
         <v>704</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K9" s="2">
+        <v>6971</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -637,10 +724,10 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1185</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>4719</v>
       </c>
       <c r="G10">
@@ -652,8 +739,20 @@
       <c r="I10">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K10" s="2">
+        <v>8367</v>
+      </c>
+      <c r="L10" s="2">
+        <v>19545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -663,10 +762,10 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1224</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>5840</v>
       </c>
       <c r="G12">
@@ -678,8 +777,14 @@
       <c r="I12">
         <v>347</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K12" s="2">
+        <v>6602</v>
+      </c>
+      <c r="L12" s="2">
+        <v>15888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -689,11 +794,17 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1065</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>4040</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10289</v>
+      </c>
+      <c r="L13" s="2">
+        <v>25232</v>
       </c>
     </row>
   </sheetData>
